--- a/BH/System Assembly/Parser_Output_BH_System_20260108/timeline_multi_system.xlsx
+++ b/BH/System Assembly/Parser_Output_BH_System_20260108/timeline_multi_system.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,13 +551,43 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
+          <t>PANEL,S7T PANEL BD ASSY</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>PDB,S7TK PDB BD ASSY</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
           <t>RAM,RAM(96G)DDR5-5600 R M321RYGA0PB0(X80)X4</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -574,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,7 +690,7 @@
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>-&gt; 2026-01-08 17:32:36,544 - INFO - [RESULT] &lt;33&gt; STORAGE, ARC STORAGE USB FIO READ TEST [arc_storage_usb_fio_read_test] - 0 min 10.377 sec - FAIL</t>
+          <t>-&gt; 2026-01-09 17:13:05,579 - INFO - [RESULT] &lt;33&gt; STORAGE, ARC STORAGE USB FIO READ TEST [arc_storage_usb_fio_read_test] - 0 min 10.405 sec - FAIL</t>
         </is>
       </c>
       <c r="E5" s="7" t="n">
@@ -673,20 +703,66 @@
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
+          <t>PANEL,S7T PANEL BD ASSY</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>FAT</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>-&gt; 2026-01-09 17:13:05,579 - INFO - [RESULT] &lt;33&gt; STORAGE, ARC STORAGE USB FIO READ TEST [arc_storage_usb_fio_read_test] - 0 min 10.405 sec - FAIL</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>PDB,S7TK PDB BD ASSY</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>FAT</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>-&gt; 2026-01-09 17:13:05,579 - INFO - [RESULT] &lt;33&gt; STORAGE, ARC STORAGE USB FIO READ TEST [arc_storage_usb_fio_read_test] - 0 min 10.405 sec - FAIL</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
           <t>RAM,RAM(96G)DDR5-5600 R M321RYGA0PB0(X80)X4</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>PRETEST</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>-&gt; 2026-01-08 18:21:36,313 - INFO - [RESULT] &lt;10&gt; GPU, TT UBB FUNC FLASH FW [tt_ft_ubb_flash_fw] - 0 min 53.587 sec - FAIL</t>
         </is>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E8" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -701,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,7 +831,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Source: FAT</t>
+          <t>Source: FRO</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1117,7 @@
       </c>
       <c r="B25" s="11" t="inlineStr">
         <is>
-          <t>S7TYBB1C251001079</t>
+          <t>S7TYBB1C251001008</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1129,7 @@
       </c>
       <c r="B26" s="11" t="inlineStr">
         <is>
-          <t>S7TKPBAB1K251023038</t>
+          <t>S7TKPBAB1K251023042</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1490,7 @@
       <c r="F42" s="9" t="inlineStr"/>
       <c r="G42" s="9" t="inlineStr"/>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" ht="30" customHeight="1">
       <c r="A43" s="12" t="inlineStr">
         <is>
           <t>FAT (20260108_172639)</t>
@@ -1445,7 +1521,233 @@
           <t>-&gt; 2026-01-08 17:32:36,544 - INFO - [RESULT] &lt;33&gt; STORAGE, ARC STORAGE USB FIO READ TEST [arc_storage_usb_fio_read_test] - 0 min 10.377 sec - FAIL</t>
         </is>
       </c>
-      <c r="G43" s="9" t="inlineStr"/>
+      <c r="G43" s="9" t="inlineStr">
+        <is>
+          <t>Replaced: PANEL,S7T PANEL BD ASSY
+S7TYBB1C251001079 -&gt; S7TYBB1C251001008</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" s="12" t="inlineStr">
+        <is>
+          <t>PRETEST (20260109_083512)</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-09 08:35:39</t>
+        </is>
+      </c>
+      <c r="C44" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-09 08:41:33</t>
+        </is>
+      </c>
+      <c r="D44" s="12" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="E44" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="inlineStr"/>
+      <c r="G44" s="9" t="inlineStr"/>
+    </row>
+    <row r="45" ht="30" customHeight="1">
+      <c r="A45" s="12" t="inlineStr">
+        <is>
+          <t>FAT (20260109_085623)</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-09 08:56:23</t>
+        </is>
+      </c>
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-09 09:02:46</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="E45" s="13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="inlineStr">
+        <is>
+          <t>-&gt; 2026-01-09 09:02:16,202 - INFO - [RESULT] &lt;33&gt; STORAGE, ARC STORAGE USB FIO READ TEST [arc_storage_usb_fio_read_test] - 0 min 10.364 sec - FAIL
+2026-01-09 09:02:46,071 - ERROR - [ARC_UUT_SYSLOG_CLEAR][FAIL@] Syslog clear NOT Pass!</t>
+        </is>
+      </c>
+      <c r="G45" s="9" t="inlineStr">
+        <is>
+          <t>Replaced: PDB,S7TK PDB BD ASSY
+S7TKPBAB1K251023038 -&gt; S7TKPBAB1K251023042</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" s="12" t="inlineStr">
+        <is>
+          <t>PRETEST (20260109_164541)</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-09 16:46:06</t>
+        </is>
+      </c>
+      <c r="C46" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-09 16:52:28</t>
+        </is>
+      </c>
+      <c r="D46" s="12" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="E46" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr"/>
+      <c r="G46" s="9" t="inlineStr"/>
+    </row>
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>FAT (20260109_170714)</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:07:14</t>
+        </is>
+      </c>
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:13:37</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="E47" s="13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>-&gt; 2026-01-09 17:13:05,579 - INFO - [RESULT] &lt;33&gt; STORAGE, ARC STORAGE USB FIO READ TEST [arc_storage_usb_fio_read_test] - 0 min 10.405 sec - FAIL</t>
+        </is>
+      </c>
+      <c r="G47" s="9" t="inlineStr"/>
+    </row>
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" s="12" t="inlineStr">
+        <is>
+          <t>FAT (20260112_104153)</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-12 10:41:53</t>
+        </is>
+      </c>
+      <c r="C48" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-12 11:02:52</t>
+        </is>
+      </c>
+      <c r="D48" s="12" t="inlineStr">
+        <is>
+          <t>20m</t>
+        </is>
+      </c>
+      <c r="E48" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr"/>
+      <c r="G48" s="9" t="inlineStr"/>
+    </row>
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>FRO (20260112_115455)</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-12 11:54:55</t>
+        </is>
+      </c>
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-12 12:10:17</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t>15m</t>
+        </is>
+      </c>
+      <c r="E49" s="13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="inlineStr">
+        <is>
+          <t>-&gt; 2026-01-12 12:10:08,027 - INFO - [RESULT] &lt;1&gt; GPU, TT UBB FUNC BURNIN TEST [tt_ft_ubb_test_burnin] - 14 min 40.458 sec - FAIL</t>
+        </is>
+      </c>
+      <c r="G49" s="9" t="inlineStr"/>
+    </row>
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" s="12" t="inlineStr">
+        <is>
+          <t>FRO (20260112_152729)</t>
+        </is>
+      </c>
+      <c r="B50" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-12 15:27:29</t>
+        </is>
+      </c>
+      <c r="C50" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-12 16:14:08</t>
+        </is>
+      </c>
+      <c r="D50" s="12" t="inlineStr">
+        <is>
+          <t>46m</t>
+        </is>
+      </c>
+      <c r="E50" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr"/>
+      <c r="G50" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1458,7 +1760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1577,6 +1879,80 @@
         </is>
       </c>
       <c r="G3" s="12" t="inlineStr">
+        <is>
+          <t>Replaced</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>FAT</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-08 17:26:00</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-09 08:34:00</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>PANEL,S7T PANEL BD ASSY</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
+        <is>
+          <t>S7TYBB1C251001079</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>S7TYBB1C251001008</t>
+        </is>
+      </c>
+      <c r="G4" s="12" t="inlineStr">
+        <is>
+          <t>Replaced</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>FAT</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-09 08:56:00</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>2026-01-09 16:45:00</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>PDB,S7TK PDB BD ASSY</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>S7TKPBAB1K251023038</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>S7TKPBAB1K251023042</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
         <is>
           <t>Replaced</t>
         </is>
